--- a/QnAMakerSampleFAQ.xlsx
+++ b/QnAMakerSampleFAQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tulasim\Documents\qnamaker\sample docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Demo\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B6A727-A201-4B71-89EB-837DCE9F713E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C7598D-EED8-4F93-8657-69B60AE9A62D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" xr2:uid="{D2046404-B0F1-4279-B8CE-3EC76D0EFFC0}"/>
+    <workbookView xWindow="3615" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{D2046404-B0F1-4279-B8CE-3EC76D0EFFC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Question</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>&lt;p&gt;&lt;p&gt;Follow the below steps to embed the QnA Maker service as a web-chat control on your website:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Create your knowledge base at &lt;a href="https://qnamaker.ai"&gt;https://qnamaker.ai&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Create your Azure service bot: &lt;a href="https://docs.botframework.com/en-us/azure-bots/build/first-bot"&gt;https://docs.botframework.com/en-us/azure-bots/build/first-bot&lt;/a&gt;&lt;/li&gt;&lt;li&gt;Look for the Question and Answer Bot template. Select the KB ID you created in step 1, then enable it on the web-chat channel. Get the embed keys. &lt;/li&gt;&lt;li&gt;Embed the web-chat as shown in &lt;a href="https://docs.botframework.com/en-us/support/embed-chat-control2"&gt;https://docs.botframework.com/en-us/support/embed-chat-control2&lt;/a&gt; &lt;/li&gt;&lt;/ul&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>site:-1</t>
+  </si>
+  <si>
+    <t>site:-1|user:limai</t>
+  </si>
+  <si>
+    <t>fileTest</t>
+  </si>
+  <si>
+    <t>source</t>
   </si>
 </sst>
 </file>
@@ -445,96 +460,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55299578-ADF3-401C-823C-CDEDBB358C5B}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.85546875" customWidth="1"/>
-    <col min="2" max="2" width="220.28515625" customWidth="1"/>
+    <col min="1" max="1" width="82.88671875" customWidth="1"/>
+    <col min="2" max="2" width="220.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
